--- a/Örnek 14 - Satır Sütun Silme.xlsx
+++ b/Örnek 14 - Satır Sütun Silme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48B986D-FD88-4209-8051-631D717421F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFA3E54-BC4B-496A-85E3-6209C7FB0A2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,11 @@
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>1. 3 ve 5 sütunu sil</t>
   </si>
@@ -84,12 +76,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -451,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -467,7 +465,9 @@
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6">
+        <v>20215070019</v>
+      </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="5"/>
@@ -478,7 +478,9 @@
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
@@ -489,7 +491,9 @@
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
@@ -651,13 +655,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -665,13 +757,73 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
